--- a/medicine/Enfance/Nathalie_Somers/Nathalie_Somers.xlsx
+++ b/medicine/Enfance/Nathalie_Somers/Nathalie_Somers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nathalie Somers, née le 25 septembre 1966 à Saint-Étienne, est une auteure française de littérature jeunesse.
 </t>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après des études scientifiques à l'INSA de Lyon, Nathalie Somers a travaillé en tant qu'ingénieure pour le métro lyonnais[1]. Par la suite, elle change de carrière pour devenir professeur des écoles[1]. Elle a publié une soixantaine de romans et d’albums et de nombreux textes en presse jeunesse.
-En 2009, elle commence par publier une série d'albums chez les éditions 400 coups dont l'héroïne Quenotte est petite souris. Au cours de ses aventures, Quenotte rencontre des personnages mythiques de l'enfance auxquels elle va porter secours (le père Noël, le marchand de sable...)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après des études scientifiques à l'INSA de Lyon, Nathalie Somers a travaillé en tant qu'ingénieure pour le métro lyonnais. Par la suite, elle change de carrière pour devenir professeur des écoles. Elle a publié une soixantaine de romans et d’albums et de nombreux textes en presse jeunesse.
+En 2009, elle commence par publier une série d'albums chez les éditions 400 coups dont l'héroïne Quenotte est petite souris. Au cours de ses aventures, Quenotte rencontre des personnages mythiques de l'enfance auxquels elle va porter secours (le père Noël, le marchand de sable...).
 En 2011, elle publie Je me souviens encore, Rebecca... chez Nathan. Ce roman, qui relate la résistance pacifique du village du Chambon-sur-Lignon lors de la seconde guerre mondiale, fait partie de la sélection de la liste de l'éducation nationale.
-En 2018, elle publie Le secret des O'Reilly aux éditions Didier jeunesse. Ce roman remporte le prix Chronos France et Chronos Suisse[3] et est sélectionné au Prix des Incorruptibles[4].
-En 2019, elle remporte le Grand Prix de l'Imaginaire catégorie roman jeunesse francophone pour sa trilogie fantastique Roslend se  déroulant lors de la seconde guerre mondiale [5].
-En 2021, elle remporte le Prix Jeunesse Lire en Poche pour son roman Moqueuse [6].
-En 2023, son roman L’herboriste de Hoteforais remporte le Prix des Incorruptibles pour la catégorie CM2/6e, une catégorie dans laquelle plus de 75000 élèves ont voté[7]. L'univers de ce roman est le même  que celui de Roslend, mais se déroule au Moyen Âge et non lors de la seconde guerre mondiale.
+En 2018, elle publie Le secret des O'Reilly aux éditions Didier jeunesse. Ce roman remporte le prix Chronos France et Chronos Suisse et est sélectionné au Prix des Incorruptibles.
+En 2019, elle remporte le Grand Prix de l'Imaginaire catégorie roman jeunesse francophone pour sa trilogie fantastique Roslend se  déroulant lors de la seconde guerre mondiale .
+En 2021, elle remporte le Prix Jeunesse Lire en Poche pour son roman Moqueuse .
+En 2023, son roman L’herboriste de Hoteforais remporte le Prix des Incorruptibles pour la catégorie CM2/6e, une catégorie dans laquelle plus de 75000 élèves ont voté. L'univers de ce roman est le même  que celui de Roslend, mais se déroule au Moyen Âge et non lors de la seconde guerre mondiale.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Quenotte (série), Les 400 coups
 L'anniversaire du père Noël, octobre 2009
